--- a/data/evaluation/evaluation_South_Spring_Peppers.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1192.350862897146</v>
+        <v>1204.79478981633</v>
       </c>
       <c r="C4" t="n">
-        <v>3252769.271101498</v>
+        <v>3304841.075048164</v>
       </c>
       <c r="D4" t="n">
-        <v>1803.543531801076</v>
+        <v>1817.922186191742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1628889553541112</v>
+        <v>0.149488102552883</v>
       </c>
     </row>
     <row r="5">
